--- a/Porfolio/Documents/Solidity Function/TestCase.xlsx
+++ b/Porfolio/Documents/Solidity Function/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arcro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7820FC2A-A560-4B6B-809F-3EFD79F47968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AF3854-EE91-46B2-976A-18252EE60EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A50AD794-2939-4B7F-A8F1-671E0781D409}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="200">
   <si>
     <t>Your Company LOGO</t>
   </si>
@@ -591,6 +591,66 @@
   </si>
   <si>
     <t>Fail to Return the correct Signer Address</t>
+  </si>
+  <si>
+    <t>Blockchain Web</t>
+  </si>
+  <si>
+    <t>To add a new record for the employee in BlockChain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Get Authorised Hospital Address 2/ Input Employee Address 3/ Input Employee ID 4/ Input Employee Name 5/ Input Employee Hospital Name 6/ click Authorise Button </t>
+  </si>
+  <si>
+    <t>1/ Get Authorised Hospital Address 2/ Input Employee Address 3/ Input Employee ID 4/ Input Employee Name 5/ Input Employee Hospital Name 6/ Click Authorise Button</t>
+  </si>
+  <si>
+    <t>1/ Get Authorised Hospital Address 2/ Input Employee Address 3/ Input ID Record 4/ Input Certificate 5/ Click Submit Button 6/ Wait for Form loads 7/ Click Add Record Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Hospital Address : 0x48c10607378AE2EAc5CcD80F999300196625aAEc 2/ Employee Address : 0x8d86fB17e258EdaF76aF3c9470CF277894d3B37c 3/ ID Record : 99700 4/ Certificate : Good </t>
+  </si>
+  <si>
+    <t>Add Record Successfully</t>
+  </si>
+  <si>
+    <t>Successfully add record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Hospital Address : 0x58c10607378AE2EAc5CcD80F999300196625aAEc 2/ Employee Address : 0x8d86fB17e258EdaF76aF3c9470CF277894d3B37c 3/ ID Record : 99700 4/ Certificate : Good </t>
+  </si>
+  <si>
+    <t>Fail to Add Record</t>
+  </si>
+  <si>
+    <t>Invalid Hospital Address, E.Address matches E.ID , Name , E.H.Name match the address, ID Record exists in DB, Record already signed, Certificate not empty</t>
+  </si>
+  <si>
+    <t>Successfully fail to add record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Hospital Address : 0x48c10607378AE2EAc5CcD80F999300196625aAEc 2/ Employee Address : 0x9c86fB17e258EdaF76aF3c9470CF277894d3B37c 3/ ID Record : 99700 4/ Certificate : Good </t>
+  </si>
+  <si>
+    <t>Hospital Address, Invalid E.Address, E.ID , Name , E.H.Name match the address, ID Record exists in DB, Record already signed, Certificate not empty</t>
+  </si>
+  <si>
+    <t>Hospital Address, E.Address matches E.ID , Name , E.H.Name match the address, ID Record doesn’t exists in DB, Certificate not empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Hospital Address : 0x48c10607378AE2EAc5CcD80F999300196625aAEc 2/ Employee Address : 0x8d86fB17e258EdaF76aF3c9470CF277894d3B37c 3/ ID Record : 100 4/ Certificate : Good </t>
+  </si>
+  <si>
+    <t>Hospital Address, E.Address matches E.ID , Name , E.H.Name match the address, ID Record exists in DB, ID Record already deployed, Certificate not empty</t>
+  </si>
+  <si>
+    <t>1/ Hospital Address : 0x48c10607378AE2EAc5CcD80F999300196625aAEc 2/ Employee Address : 0x8d86fB17e258EdaF76aF3c9470CF277894d3B37c 3/ ID Record : 99701 4/ Certificate :</t>
+  </si>
+  <si>
+    <t>Hospital Address, E.Address matches E.ID , Name , E.H.Name match the address, ID Record unique, ID Record hasn’t been deployed, ID Record signed, Certificate is empty</t>
+  </si>
+  <si>
+    <t>Hospital Address, E.Address matches E.ID , Name , E.H.Name match the address, ID Record exists in DB, Record already signed and hasn’t been deployed, Certificate not empty</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4A98E-467C-4385-9ACE-97D06BEFFFF5}">
   <dimension ref="A1:J349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1459,7 @@
     <col min="4" max="4" width="210.7109375" customWidth="1"/>
     <col min="5" max="5" width="255.5703125" customWidth="1"/>
     <col min="6" max="6" width="71" customWidth="1"/>
-    <col min="7" max="7" width="131.5703125" customWidth="1"/>
+    <col min="7" max="7" width="170" customWidth="1"/>
     <col min="8" max="8" width="53.5703125" customWidth="1"/>
     <col min="9" max="9" width="46.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -2908,7 +2968,9 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="B57" s="40"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2920,175 +2982,429 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="40"/>
+      <c r="A58" s="5">
+        <v>46</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="40"/>
+      <c r="A59" s="5">
+        <v>47</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="40"/>
+      <c r="A60" s="5">
+        <v>48</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="40"/>
+      <c r="A61" s="5">
+        <v>49</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="40"/>
+      <c r="A62" s="5">
+        <v>50</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="40"/>
+      <c r="A63" s="5">
+        <v>51</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="40"/>
+      <c r="A64" s="5">
+        <v>52</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="40"/>
+      <c r="A65" s="5">
+        <v>53</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="40"/>
+      <c r="A66" s="5">
+        <v>54</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="40"/>
+      <c r="A67" s="5">
+        <v>55</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="40"/>
+      <c r="A68" s="5">
+        <v>56</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="40"/>
+      <c r="A69" s="5">
+        <v>57</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I69" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="40"/>
+      <c r="A70" s="5">
+        <v>58</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="40"/>
+      <c r="A71" s="5">
+        <v>59</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I71" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5">
+        <v>60</v>
+      </c>
       <c r="B72" s="40"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
